--- a/analysis/Transfers Analysis.xlsx
+++ b/analysis/Transfers Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d04025c766eef03f/workspace/365DataScience-Excel-FootballTransfersAnalysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="11_F25DC773A252ABDACC10485C419873D45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC58710D-33FB-4F4D-A720-91F6AB4FF240}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="11_F25DC773A252ABDACC10485C419873D45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E466348-994D-40CB-B583-C4B2C966D7FB}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2865" windowWidth="21600" windowHeight="11835" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1905" windowWidth="21600" windowHeight="11835" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_database" sheetId="5" state="hidden" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17112" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17113" uniqueCount="180">
   <si>
     <t>Analyze European Transfers</t>
   </si>
@@ -687,6 +687,9 @@
     <t>2022/2023
 Total $ / Total #</t>
   </si>
+  <si>
+    <t>// TODO: revise it and add a graphic to visualize it</t>
+  </si>
 </sst>
 </file>
 
@@ -79505,7 +79508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8DCC-B36E-4D1B-A09D-6942F643F097}">
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L4" activeCellId="1" sqref="I4 L4"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
@@ -82068,6 +82071,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -82075,10 +82079,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D4B04-5487-43ED-BA04-3B1233473CE4}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:E48"/>
+  <dimension ref="B1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -82717,6 +82721,11 @@
       </c>
       <c r="D48" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/Transfers Analysis.xlsx
+++ b/analysis/Transfers Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d04025c766eef03f/workspace/365DataScience-Excel-FootballTransfersAnalysis/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="488" documentId="11_F25DC773A252ABDACC10485C419873D45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E466348-994D-40CB-B583-C4B2C966D7FB}"/>
+  <xr:revisionPtr revIDLastSave="722" documentId="11_F25DC773A252ABDACC10485C419873D45ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348461DD-8342-406C-80A5-29E84C3357D4}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1905" windowWidth="21600" windowHeight="11835" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_database" sheetId="5" state="hidden" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17113" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17056" uniqueCount="179">
   <si>
     <t>Analyze European Transfers</t>
   </si>
@@ -685,10 +685,7 @@
   </si>
   <si>
     <t>2022/2023
-Total $ / Total #</t>
-  </si>
-  <si>
-    <t>// TODO: revise it and add a graphic to visualize it</t>
+Average fee</t>
   </si>
 </sst>
 </file>
@@ -814,8 +811,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -835,6 +830,8 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -873,6 +870,1200 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Transfer Incoming Number</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="2700000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln w="6350">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transfer Fees - Top 5 European'!$B$13:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>England</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transfer Fees - Top 5 European'!$C$13:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E205-4E78-9B2E-4413F7315E06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-20"/>
+        <c:axId val="1174803344"/>
+        <c:axId val="1174795664"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average Fee in millions</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst>
+                  <a:softEdge rad="12700"/>
+                </a:effectLst>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="6350" cap="rnd">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E205-4E78-9B2E-4413F7315E06}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln w="6350" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Transfer Fees - Top 5 European'!$B$13:$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>England</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Transfer Fees - Top 5 European'!$E$13:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2127361.2256838172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1231500.2274318419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1753915.0085361104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>969930.79093812511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1670692.2407288889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E205-4E78-9B2E-4413F7315E06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1038303216"/>
+        <c:axId val="958509424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1174803344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="3175">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174795664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1174795664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="3175">
+                  <a:noFill/>
+                </a:ln>
+                <a:noFill/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174803344"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="958509424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="[$$-409]#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038303216"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1038303216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="958509424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr anchor="t" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16564</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>187677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0AF37A-7C91-B1AB-6ED8-2134B9A8CCEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -79421,7 +80612,6 @@
   <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -79446,10 +80636,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -79459,11 +80649,11 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(E$3,9),_database[CONTIN],RIGHT(E$3,6))</f>
         <v>10744</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(F$3,9),_database[CONTIN],RIGHT(F$3,6))</f>
         <v>11148</v>
       </c>
@@ -79474,11 +80664,11 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(E$3,9),_database[CONTOUT],RIGHT(E$3,6))</f>
         <v>9034</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(F$3,9),_database[CONTOUT],RIGHT(F$3,6))</f>
         <v>9358</v>
       </c>
@@ -79489,11 +80679,11 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f>E$4-E$5</f>
         <v>1710</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <f>F$4-F$5</f>
         <v>1790</v>
       </c>
@@ -79506,10 +80696,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8DCC-B36E-4D1B-A09D-6942F643F097}">
-  <dimension ref="B1:O48"/>
+  <dimension ref="B1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" activeCellId="1" sqref="I4 L4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -79523,2551 +80712,2381 @@
     <col min="2" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="str" cm="1">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="str" cm="1">
         <f t="array" ref="B4:B47">_xlfn._xlws.FILTER(_countries[Country],_countries[Continent]="Europe")</f>
         <v>Albania</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B4)</f>
         <v>166</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B4)</f>
         <v>120</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <f>$C4-$D4</f>
         <v>46</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B4)</f>
         <v>393224.78505900002</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B4)</f>
         <v>80716.618902000002</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <f>F4-G4</f>
         <v>312508.166157</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B4)</f>
         <v>202</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B4)</f>
         <v>146</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f>$I4-$J4</f>
         <v>56</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B4)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="12">
         <f>L4-M4</f>
         <v>0</v>
       </c>
-      <c r="O4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="str">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="str">
         <v>Austria</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B5)</f>
         <v>160</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B5)</f>
         <v>132</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f t="shared" ref="E5:E47" si="0">$C5-$D5</f>
         <v>28</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B5)</f>
         <v>16506548.565459</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B5)</f>
         <v>11421401.574633</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="12">
         <f t="shared" ref="H5:H47" si="1">F5-G5</f>
         <v>5085146.9908259995</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B5)</f>
         <v>142</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B5)</f>
         <v>110</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f t="shared" ref="K5:K47" si="2">$I5-$J5</f>
         <v>32</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B5)</f>
         <v>87246776.692554608</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B5)</f>
         <v>86290685.431887612</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="12">
         <f t="shared" ref="N5:N47" si="3">L5-M5</f>
         <v>956091.26066699624</v>
       </c>
-      <c r="O5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="str">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="str">
         <v>Belgium</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B6)</f>
         <v>486</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B6)</f>
         <v>348</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B6)</f>
         <v>124501421.5697102</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B6)</f>
         <v>85964208.0883663</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <f t="shared" si="1"/>
         <v>38537213.481343895</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B6)</f>
         <v>536</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B6)</f>
         <v>342</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B6)</f>
         <v>114575037.71468154</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B6)</f>
         <v>84656531.089338154</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <f t="shared" si="3"/>
         <v>29918506.625343382</v>
       </c>
-      <c r="O6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="str">
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="str">
         <v>Bosnia-Herzegovina</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B7)</f>
         <v>126</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B7)</f>
         <v>110</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B7)</f>
         <v>170</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B7)</f>
         <v>134</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="15">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B7)</f>
         <v>23521.407020999999</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B7)</f>
         <v>23521.407020999999</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="str">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="str">
         <v>Belarus</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B8)</f>
         <v>126</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B8)</f>
         <v>80</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B8)</f>
         <v>4972182.5213339999</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B8)</f>
         <v>936449.57011800003</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
         <v>4035732.9512160001</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B8)</f>
         <v>180</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B8)</f>
         <v>102</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B8)</f>
         <v>774598.55195700005</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B8)</f>
         <v>619599.71341199998</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <f t="shared" si="3"/>
         <v>154998.83854500006</v>
       </c>
-      <c r="O8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="str">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="str">
         <v>Bulgaria</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B9)</f>
         <v>248</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B9)</f>
         <v>140</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B9)</f>
         <v>7208066.5406988757</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B9)</f>
         <v>3627203.0619086251</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="12">
         <f t="shared" si="1"/>
         <v>3580863.4787902506</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B9)</f>
         <v>362</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B9)</f>
         <v>256</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B9)</f>
         <v>10813449.441447154</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B9)</f>
         <v>8067325.5161521509</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <f t="shared" si="3"/>
         <v>2746123.9252950028</v>
       </c>
-      <c r="O9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="str">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="str">
         <v>Croatia</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B10)</f>
         <v>142</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B10)</f>
         <v>104</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B10)</f>
         <v>14439723.095604833</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B10)</f>
         <v>14439299.333355598</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="12">
         <f t="shared" si="1"/>
         <v>423.76224923506379</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B10)</f>
         <v>136</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B10)</f>
         <v>96</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B10)</f>
         <v>10553371.735145465</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B10)</f>
         <v>2123371.7351454631</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <f t="shared" si="3"/>
         <v>8430000.0000000019</v>
       </c>
-      <c r="O10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="str">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="str">
         <v>Czech Republic</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B11)</f>
         <v>176</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B11)</f>
         <v>162</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B11)</f>
         <v>5444857.2171569997</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B11)</f>
         <v>3225150.1973519996</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
         <v>2219707.0198050002</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B11)</f>
         <v>228</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B11)</f>
         <v>184</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B11)</f>
         <v>10862004.02939013</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B11)</f>
         <v>9409104.8891541287</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <f t="shared" si="3"/>
         <v>1452899.1402360015</v>
       </c>
-      <c r="O11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="str">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="str">
         <v>Denmark</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B12)</f>
         <v>146</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B12)</f>
         <v>114</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B12)</f>
         <v>29242797.980754059</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B12)</f>
         <v>27742006.333353356</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>1500791.6474007033</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B12)</f>
         <v>180</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B12)</f>
         <v>136</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="15">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B12)</f>
         <v>14294018.518763443</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B12)</f>
         <v>14174018.518763443</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="12">
         <f t="shared" si="3"/>
         <v>120000</v>
       </c>
-      <c r="O12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="str">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="str">
         <v>England</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B13)</f>
         <v>950</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B13)</f>
         <v>816</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B13)</f>
         <v>1153121832.9328232</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B13)</f>
         <v>1015932050.3046319</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="12">
         <f t="shared" si="1"/>
         <v>137189782.62819123</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B13)</f>
         <v>1020</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B13)</f>
         <v>890</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="15">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B13)</f>
         <v>2169908450.1974936</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B13)</f>
         <v>1910704895.5238562</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <f t="shared" si="3"/>
         <v>259203554.67363739</v>
       </c>
-      <c r="O13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="str">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="str">
         <v>Spain</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B14)</f>
         <v>464</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B14)</f>
         <v>306</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B14)</f>
         <v>1159894424.9825063</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B14)</f>
         <v>1064019054.1590031</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="12">
         <f t="shared" si="1"/>
         <v>95875370.823503137</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B14)</f>
         <v>476</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B14)</f>
         <v>324</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="15">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B14)</f>
         <v>586194108.2575568</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B14)</f>
         <v>506319001.33946985</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <f t="shared" si="3"/>
         <v>79875106.918086946</v>
       </c>
-      <c r="O14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="str">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="str">
         <v>Estonia</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B15)</f>
         <v>88</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B15)</f>
         <v>58</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B15)</f>
         <v>161433.237804</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B15)</f>
         <v>161433.237804</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B15)</f>
         <v>106</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B15)</f>
         <v>54</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="15">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B15)</f>
         <v>80.716618901999993</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="12">
         <f t="shared" si="3"/>
         <v>80.716618901999993</v>
       </c>
-      <c r="O15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="str">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="17" t="str">
         <v>Finland</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B16)</f>
         <v>200</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B16)</f>
         <v>100</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B16)</f>
         <v>412712.1914145</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B16)</f>
         <v>192421.3159665</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="12">
         <f t="shared" si="1"/>
         <v>220290.87544800001</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B16)</f>
         <v>236</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B16)</f>
         <v>138</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B16)</f>
         <v>52307.907516840001</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B16)</f>
         <v>52307.907516840001</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="str">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="str">
         <v>France</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B17)</f>
         <v>494</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B17)</f>
         <v>290</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B17)</f>
         <v>584775973.83836937</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B17)</f>
         <v>483997590.43752801</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="12">
         <f t="shared" si="1"/>
         <v>100778383.40084136</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B17)</f>
         <v>438</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B17)</f>
         <v>276</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="15">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B17)</f>
         <v>768214773.73881638</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B17)</f>
         <v>502255004.27356422</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="12">
         <f t="shared" si="3"/>
         <v>265959769.46525216</v>
       </c>
-      <c r="O17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="str">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="str">
         <v>Faroe Islands</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B18)</f>
         <v>56</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B18)</f>
         <v>52</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B18)</f>
         <v>10818.135714</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B18)</f>
         <v>10818.135714</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B18)</f>
         <v>40</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B18)</f>
         <v>38</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B18)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="str">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="str">
         <v>Germany</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B19)</f>
         <v>578</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B19)</f>
         <v>452</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B19)</f>
         <v>528895232.47284055</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B19)</f>
         <v>495982743.08504301</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <f t="shared" si="1"/>
         <v>32912489.387797534</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B19)</f>
         <v>664</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B19)</f>
         <v>506</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="15">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B19)</f>
         <v>644034045.18291509</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B19)</f>
         <v>573620411.8903482</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="12">
         <f t="shared" si="3"/>
         <v>70413633.292566895</v>
       </c>
-      <c r="O19" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="str">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="str">
         <v>Greece</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B20)</f>
         <v>392</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B20)</f>
         <v>278</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B20)</f>
         <v>35211658.040945157</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B20)</f>
         <v>30601527.382433157</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="12">
         <f t="shared" si="1"/>
         <v>4610130.658512</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B20)</f>
         <v>452</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B20)</f>
         <v>278</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="15">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B20)</f>
         <v>15037433.020300502</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B20)</f>
         <v>12057257.917476</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="12">
         <f t="shared" si="3"/>
         <v>2980175.1028245017</v>
       </c>
-      <c r="O20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="str">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="str">
         <v>Hungary</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B21)</f>
         <v>292</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B21)</f>
         <v>238</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B21)</f>
         <v>1205374.6417650001</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B21)</f>
         <v>605374.64176500007</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="12">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B21)</f>
         <v>432</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B21)</f>
         <v>320</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="15">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B21)</f>
         <v>2736869.8241974534</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B21)</f>
         <v>1026332.360020953</v>
       </c>
-      <c r="N21" s="14">
+      <c r="N21" s="12">
         <f t="shared" si="3"/>
         <v>1710537.4641765004</v>
       </c>
-      <c r="O21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="str">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="str">
         <v>Republic of Ireland</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B22)</f>
         <v>78</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B22)</f>
         <v>68</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B22)</f>
         <v>154787.55142375501</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B22)</f>
         <v>154787.55142375501</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B22)</f>
         <v>74</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B22)</f>
         <v>64</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B22)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="str">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="str">
         <v>Iceland</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B23)</f>
         <v>98</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B23)</f>
         <v>92</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B23)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B23)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B23)</f>
         <v>112</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B23)</f>
         <v>112</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B23)</f>
         <v>128486.48042399999</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B23)</f>
         <v>128486.48042399999</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="str">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="str">
         <v>Italy</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B24)</f>
         <v>592</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B24)</f>
         <v>422</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B24)</f>
         <v>1001273097.7879421</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B24)</f>
         <v>590197179.40465808</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="12">
         <f t="shared" si="1"/>
         <v>411075918.38328397</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B24)</f>
         <v>542</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B24)</f>
         <v>376</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="15">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B24)</f>
         <v>905515194.47505784</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B24)</f>
         <v>652486137.27927136</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="12">
         <f t="shared" si="3"/>
         <v>253029057.19578648</v>
       </c>
-      <c r="O24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="str">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="str">
         <v>Lithuania</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B25)</f>
         <v>114</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B25)</f>
         <v>90</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B25)</f>
         <v>1833275.9277509998</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B25)</f>
         <v>1792917.6182999997</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="12">
         <f t="shared" si="1"/>
         <v>40358.309451000066</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B25)</f>
         <v>110</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B25)</f>
         <v>78</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B25)</f>
         <v>39045.311538000002</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B25)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="12">
         <f t="shared" si="3"/>
         <v>39045.311538000002</v>
       </c>
-      <c r="O25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="str">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="str">
         <v>Luxembourg</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B26)</f>
         <v>80</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B26)</f>
         <v>74</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B26)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B26)</f>
         <v>102</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B26)</f>
         <v>94</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B26)</f>
         <v>12107.4928353</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B26)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="12">
         <f t="shared" si="3"/>
         <v>12107.4928353</v>
       </c>
-      <c r="O26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="str">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="str">
         <v>Latvia</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B27)</f>
         <v>102</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B27)</f>
         <v>54</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="15">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B27)</f>
         <v>984016.30103428196</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B27)</f>
         <v>780206.83830673201</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <f t="shared" si="1"/>
         <v>203809.46272754995</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B27)</f>
         <v>130</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B27)</f>
         <v>70</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="15">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B27)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B27)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O27" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="str">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="str">
         <v>Moldova</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B28)</f>
         <v>264</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B28)</f>
         <v>152</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="15">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B28)</f>
         <v>2316365.6158440001</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B28)</f>
         <v>1776365.6158439999</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="12">
         <f t="shared" si="1"/>
         <v>540000.00000000023</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B28)</f>
         <v>180</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B28)</f>
         <v>74</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="15">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B28)</f>
         <v>2950440.5509350002</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B28)</f>
         <v>2746772.0489790002</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="12">
         <f t="shared" si="3"/>
         <v>203668.50195599999</v>
       </c>
-      <c r="O28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="str">
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="str">
         <v>FYR Macedonia</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B29)</f>
         <v>82</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B29)</f>
         <v>66</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B29)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B29)</f>
         <v>114</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B29)</f>
         <v>88</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="15">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B29)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="str">
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="str">
         <v>Malta</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B30)</f>
         <v>142</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B30)</f>
         <v>82</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="15">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B30)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B30)</f>
         <v>156</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B30)</f>
         <v>86</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="15">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B30)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B30)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="str">
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="str">
         <v>Montenegro</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B31)</f>
         <v>34</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B31)</f>
         <v>26</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B31)</f>
         <v>322866.47560800001</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B31)</f>
         <v>322866.47560800001</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B31)</f>
         <v>54</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B31)</f>
         <v>38</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="15">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B31)</f>
         <v>403583.09450999997</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B31)</f>
         <v>403583.09450999997</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O31" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="str">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="str">
         <v>Netherlands</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B32)</f>
         <v>266</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B32)</f>
         <v>204</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="15">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B32)</f>
         <v>95805118.786065698</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B32)</f>
         <v>67299351.167307675</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="12">
         <f t="shared" si="1"/>
         <v>28505767.618758023</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B32)</f>
         <v>256</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B32)</f>
         <v>220</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="15">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B32)</f>
         <v>117491112.13716035</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B32)</f>
         <v>98908962.797931612</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="12">
         <f t="shared" si="3"/>
         <v>18582149.339228734</v>
       </c>
-      <c r="O32" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="str">
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="str">
         <v>Northern Ireland</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B33)</f>
         <v>52</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B33)</f>
         <v>52</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B33)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B33)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B33)</f>
         <v>36</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B33)</f>
         <v>32</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B33)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B33)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="str">
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="str">
         <v>Norway</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B34)</f>
         <v>238</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B34)</f>
         <v>162</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="15">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B34)</f>
         <v>31523568.582067311</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B34)</f>
         <v>24441060.103494547</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="12">
         <f t="shared" si="1"/>
         <v>7082508.4785727635</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B34)</f>
         <v>282</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B34)</f>
         <v>224</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="15">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B34)</f>
         <v>30054486.565134872</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B34)</f>
         <v>21526118.375324376</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="12">
         <f t="shared" si="3"/>
         <v>8528368.1898104958</v>
       </c>
-      <c r="O34" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="str">
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="str">
         <v>Poland</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B35)</f>
         <v>340</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B35)</f>
         <v>220</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B35)</f>
         <v>19993359.285142705</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B35)</f>
         <v>15453208.876782211</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="12">
         <f t="shared" si="1"/>
         <v>4540150.4083604943</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B35)</f>
         <v>240</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B35)</f>
         <v>164</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="15">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B35)</f>
         <v>4566136.0709100002</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B35)</f>
         <v>3011475.9819</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="12">
         <f t="shared" si="3"/>
         <v>1554660.0890100002</v>
       </c>
-      <c r="O35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="str">
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="17" t="str">
         <v>Portugal</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B36)</f>
         <v>584</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B36)</f>
         <v>230</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="15">
         <f t="shared" si="0"/>
         <v>354</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B36)</f>
         <v>438430195.67575628</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B36)</f>
         <v>269893625.14814395</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="12">
         <f t="shared" si="1"/>
         <v>168536570.52761233</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B36)</f>
         <v>618</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B36)</f>
         <v>236</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="15">
         <f t="shared" si="2"/>
         <v>382</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B36)</f>
         <v>203220481.23969012</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B36)</f>
         <v>90813416.829266503</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="12">
         <f t="shared" si="3"/>
         <v>112407064.41042362</v>
       </c>
-      <c r="O36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="str">
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="17" t="str">
         <v>Romania</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B37)</f>
         <v>394</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B37)</f>
         <v>260</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="15">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B37)</f>
         <v>3281105.4323473019</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B37)</f>
         <v>2784698.2261000019</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="12">
         <f t="shared" si="1"/>
         <v>496407.20624729991</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B37)</f>
         <v>362</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B37)</f>
         <v>246</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="15">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B37)</f>
         <v>4941136.2704505008</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B37)</f>
         <v>4257319.5967905</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="12">
         <f t="shared" si="3"/>
         <v>683816.67366000079</v>
       </c>
-      <c r="O37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="str">
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="str">
         <v>Scotland</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B38)</f>
         <v>372</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B38)</f>
         <v>338</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B38)</f>
         <v>30964815.516676325</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B38)</f>
         <v>29489166.773866322</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="12">
         <f t="shared" si="1"/>
         <v>1475648.7428100035</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B38)</f>
         <v>296</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B38)</f>
         <v>266</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="15">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B38)</f>
         <v>9401920.7045397442</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B38)</f>
         <v>3160144.759439745</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="12">
         <f t="shared" si="3"/>
         <v>6241775.9450999992</v>
       </c>
-      <c r="O38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="str">
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="str">
         <v>Serbia</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B39)</f>
         <v>186</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B39)</f>
         <v>130</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B39)</f>
         <v>12182063.15493609</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B39)</f>
         <v>1527429.1015626299</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="12">
         <f t="shared" si="1"/>
         <v>10654634.05337346</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B39)</f>
         <v>214</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B39)</f>
         <v>128</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="15">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B39)</f>
         <v>2740955.1612720001</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B39)</f>
         <v>918282.83016420004</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="12">
         <f t="shared" si="3"/>
         <v>1822672.3311077999</v>
       </c>
-      <c r="O39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="str">
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="str">
         <v>Switzerland</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B40)</f>
         <v>228</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B40)</f>
         <v>160</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B40)</f>
         <v>51179994.506849304</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B40)</f>
         <v>29605846.855517313</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="12">
         <f t="shared" si="1"/>
         <v>21574147.651331991</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B40)</f>
         <v>196</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B40)</f>
         <v>146</v>
       </c>
-      <c r="K40" s="17">
+      <c r="K40" s="15">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B40)</f>
         <v>54068307.458480537</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B40)</f>
         <v>17614168.343891103</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="12">
         <f t="shared" si="3"/>
         <v>36454139.114589438</v>
       </c>
-      <c r="O40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="str">
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="str">
         <v>Slovakia</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B41)</f>
         <v>166</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B41)</f>
         <v>126</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B41)</f>
         <v>6262166.2596094497</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B41)</f>
         <v>5769240.8817946501</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="12">
         <f t="shared" si="1"/>
         <v>492925.37781479955</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B41)</f>
         <v>140</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B41)</f>
         <v>130</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B41)</f>
         <v>1008582.035294046</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B41)</f>
         <v>813025.3235840461</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="12">
         <f t="shared" si="3"/>
         <v>195556.71170999995</v>
       </c>
-      <c r="O41" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="str">
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="str">
         <v>Slovenia</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B42)</f>
         <v>72</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B42)</f>
         <v>56</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B42)</f>
         <v>1614332.3780399999</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B42)</f>
         <v>1614332.3780399999</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B42)</f>
         <v>98</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B42)</f>
         <v>96</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B42)</f>
         <v>0</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B42)</f>
         <v>0</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="str">
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="str">
         <v>Sweden</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B43)</f>
         <v>434</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B43)</f>
         <v>300</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="15">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B43)</f>
         <v>16062413.755754368</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B43)</f>
         <v>14709054.119689111</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="12">
         <f t="shared" si="1"/>
         <v>1353359.6360652577</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B43)</f>
         <v>358</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B43)</f>
         <v>244</v>
       </c>
-      <c r="K43" s="17">
+      <c r="K43" s="15">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B43)</f>
         <v>19856246.810189221</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B43)</f>
         <v>17363616.831866521</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="12">
         <f t="shared" si="3"/>
         <v>2492629.9783226997</v>
       </c>
-      <c r="O43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="str">
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="str">
         <v>Ukraine</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B44)</f>
         <v>368</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B44)</f>
         <v>224</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B44)</f>
         <v>246419317.65226299</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B44)</f>
         <v>150875771.35054475</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="12">
         <f t="shared" si="1"/>
         <v>95543546.301718235</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B44)</f>
         <v>286</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B44)</f>
         <v>178</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="15">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B44)</f>
         <v>231758599.70674241</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B44)</f>
         <v>173791434.22081238</v>
       </c>
-      <c r="N44" s="14">
+      <c r="N44" s="12">
         <f t="shared" si="3"/>
         <v>57967165.485930026</v>
       </c>
-      <c r="O44" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="str">
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="str">
         <v>Wales</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B45)</f>
         <v>168</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B45)</f>
         <v>156</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B45)</f>
         <v>71870947.304637611</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B45)</f>
         <v>68642282.548557609</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="12">
         <f t="shared" si="1"/>
         <v>3228664.7560800016</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B45)</f>
         <v>188</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B45)</f>
         <v>186</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B45)</f>
         <v>152786599.32513449</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B45)</f>
         <v>141486272.6788545</v>
       </c>
-      <c r="N45" s="14">
+      <c r="N45" s="12">
         <f t="shared" si="3"/>
         <v>11300326.646279991</v>
       </c>
-      <c r="O45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="str">
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="str">
         <v>Kosovo</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B46)</f>
         <v>4</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B46)</f>
         <v>4</v>
       </c>
-      <c r="K46" s="17">
+      <c r="K46" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-      <c r="N46" s="14">
+      <c r="N46" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="str">
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="str">
         <v>San Marino</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(D$3,9),_database[CONTOUT],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(F$3,9),_database[CONTIN],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(G$3,9),_database[CONTOUT],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(I$3,9),_database[CONTIN],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(J$3,9),_database[CONTOUT],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="17">
+      <c r="K47" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(L$3,9),_database[CONTIN],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(M$3,9),_database[CONTOUT],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="14">
+      <c r="N47" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G48" t="s">
-        <v>154</v>
-      </c>
-      <c r="H48" t="s">
-        <v>154</v>
-      </c>
-      <c r="I48" t="s">
-        <v>154</v>
-      </c>
-      <c r="J48" t="s">
-        <v>154</v>
-      </c>
-      <c r="K48" t="s">
-        <v>154</v>
-      </c>
-      <c r="L48" t="s">
-        <v>154</v>
-      </c>
-      <c r="M48" t="s">
-        <v>154</v>
-      </c>
-      <c r="N48" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -82078,11 +83097,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D4B04-5487-43ED-BA04-3B1233473CE4}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:E50"/>
+  <sheetPr filterMode="1">
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="B1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -82095,7 +83115,7 @@
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
@@ -82104,14 +83124,14 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>178</v>
       </c>
     </row>
@@ -82120,149 +83140,158 @@
         <f t="array" ref="B4:B47">_xlfn._xlws.FILTER(_countries[Country], _countries[Continent]="Europe")</f>
         <v>Albania</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B4)</f>
         <v>202</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B4)</f>
         <v>0</v>
       </c>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
         <v>Austria</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B5)</f>
         <v>142</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B5)</f>
         <v>87246776.692554608</v>
       </c>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <v>Belgium</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B6)</f>
         <v>536</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B6)</f>
         <v>114575037.71468154</v>
       </c>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <v>Bosnia-Herzegovina</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B7)</f>
         <v>170</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B7)</f>
         <v>23521.407020999999</v>
       </c>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <v>Belarus</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B8)</f>
         <v>180</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B8)</f>
         <v>774598.55195700005</v>
       </c>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <v>Bulgaria</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B9)</f>
         <v>362</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B9)</f>
         <v>10813449.441447154</v>
       </c>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <v>Croatia</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B10)</f>
         <v>136</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B10)</f>
         <v>10553371.735145465</v>
       </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <v>Czech Republic</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B11)</f>
         <v>228</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B11)</f>
         <v>10862004.02939013</v>
       </c>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <v>Denmark</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B12)</f>
         <v>180</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B12)</f>
         <v>14294018.518763443</v>
       </c>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
+      <c r="B13" s="17" t="str">
         <v>England</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B13)</f>
         <v>1020</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B13)</f>
         <v>2169908450.1974936</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f>$D13/$C13</f>
         <v>2127361.2256838172</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
+      <c r="B14" s="17" t="str">
         <v>Spain</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B14)</f>
         <v>476</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B14)</f>
         <v>586194108.2575568</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <f t="shared" ref="E14" si="0">$D14/$C14</f>
         <v>1231500.2274318419</v>
       </c>
@@ -82271,43 +83300,43 @@
       <c r="B15" t="str">
         <v>Estonia</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B15)</f>
         <v>106</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B15)</f>
         <v>80.716618901999993</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <v>Finland</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B16)</f>
         <v>236</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B16)</f>
         <v>52307.907516840001</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
+      <c r="B17" s="17" t="str">
         <v>France</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B17)</f>
         <v>438</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B17)</f>
         <v>768214773.73881638</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f>$D17/$C17</f>
         <v>1753915.0085361104</v>
       </c>
@@ -82316,29 +83345,29 @@
       <c r="B18" t="str">
         <v>Faroe Islands</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B18)</f>
         <v>40</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B18)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
+      <c r="B19" s="17" t="str">
         <v>Germany</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B19)</f>
         <v>664</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B19)</f>
         <v>644034045.18291509</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <f>$D19/$C19</f>
         <v>969930.79093812511</v>
       </c>
@@ -82347,71 +83376,71 @@
       <c r="B20" t="str">
         <v>Greece</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B20)</f>
         <v>452</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B20)</f>
         <v>15037433.020300502</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <v>Hungary</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B21)</f>
         <v>432</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B21)</f>
         <v>2736869.8241974534</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <v>Republic of Ireland</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B22)</f>
         <v>74</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B22)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <v>Iceland</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B23)</f>
         <v>112</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B23)</f>
         <v>128486.48042399999</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
+      <c r="B24" s="17" t="str">
         <v>Italy</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B24)</f>
         <v>542</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B24)</f>
         <v>905515194.47505784</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <f>$D24/$C24</f>
         <v>1670692.2407288889</v>
       </c>
@@ -82420,302 +83449,325 @@
       <c r="B25" t="str">
         <v>Lithuania</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B25)</f>
         <v>110</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B25)</f>
         <v>39045.311538000002</v>
       </c>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="str">
         <v>Luxembourg</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B26)</f>
         <v>102</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B26)</f>
         <v>12107.4928353</v>
       </c>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="str">
         <v>Latvia</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B27)</f>
         <v>130</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B27)</f>
         <v>0</v>
       </c>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <v>Moldova</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B28)</f>
         <v>180</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B28)</f>
         <v>2950440.5509350002</v>
       </c>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
         <v>FYR Macedonia</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B29)</f>
         <v>114</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B29)</f>
         <v>0</v>
       </c>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="str">
         <v>Malta</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B30)</f>
         <v>156</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B30)</f>
         <v>0</v>
       </c>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <v>Montenegro</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B31)</f>
         <v>54</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B31)</f>
         <v>403583.09450999997</v>
       </c>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <v>Netherlands</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B32)</f>
         <v>256</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B32)</f>
         <v>117491112.13716035</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <v>Northern Ireland</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B33)</f>
         <v>36</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <v>Norway</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B34)</f>
         <v>282</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B34)</f>
         <v>30054486.565134872</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <v>Poland</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B35)</f>
         <v>240</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B35)</f>
         <v>4566136.0709100002</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <v>Portugal</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B36)</f>
         <v>618</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B36)</f>
         <v>203220481.23969012</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <v>Romania</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B37)</f>
         <v>362</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B37)</f>
         <v>4941136.2704505008</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="str">
         <v>Scotland</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B38)</f>
         <v>296</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B38)</f>
         <v>9401920.7045397442</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="str">
         <v>Serbia</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B39)</f>
         <v>214</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B39)</f>
         <v>2740955.1612720001</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" t="str">
         <v>Switzerland</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B40)</f>
         <v>196</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B40)</f>
         <v>54068307.458480537</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <v>Slovakia</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B41)</f>
         <v>140</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B41)</f>
         <v>1008582.035294046</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="str">
         <v>Slovenia</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B42)</f>
         <v>98</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="str">
         <v>Sweden</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B43)</f>
         <v>358</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B43)</f>
         <v>19856246.810189221</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="str">
         <v>Ukraine</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B44)</f>
         <v>286</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B44)</f>
         <v>231758599.70674241</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <v>Wales</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B45)</f>
         <v>188</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B45)</f>
         <v>152786599.32513449</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <v>Kosovo</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B46)</f>
         <v>4</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <v>San Marino</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="14">
         <f>SUMIFS(_database[NTX],_database[SZN],LEFT(C$3,9),_database[CONTIN],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="13">
         <f>SUMIFS(_database[FEE],_database[SZN],LEFT(D$3,9),_database[CONTIN],"Europe",_database[IN],$B47)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>154</v>
       </c>
@@ -82723,18 +83775,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>179</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B3:D48" xr:uid="{BC8D4B04-5487-43ED-BA04-3B1233473CE4}">
     <filterColumn colId="2">
       <top10 val="5" filterVal="586194108.2575568"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
